--- a/data/附件1：订单数据.xlsx
+++ b/data/附件1：订单数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49C1D6C-4F63-4B24-8222-6AFFBFB17569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A04F47-65F8-4325-BB37-9BFE54EE567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:G2305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="1" sqref="H1:H1048576 I1:I1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/附件1：订单数据.xlsx
+++ b/data/附件1：订单数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A04F47-65F8-4325-BB37-9BFE54EE567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF7801-6F6C-47EC-9138-4D20EF630772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:G2305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/附件1：订单数据.xlsx
+++ b/data/附件1：订单数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF7801-6F6C-47EC-9138-4D20EF630772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A04F47-65F8-4325-BB37-9BFE54EE567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:G2305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/附件1：订单数据.xlsx
+++ b/data/附件1：订单数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF7801-6F6C-47EC-9138-4D20EF630772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D230618E-4DE1-4807-B6B1-9C0D92DFC6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:G2305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
